--- a/US/data/BOC/FTD/FTDE/UAMVCSB_M_historical.xlsx
+++ b/US/data/BOC/FTD/FTDE/UAMVCSB_M_historical.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BA153"/>
+  <dimension ref="A1:BC153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -619,10 +619,20 @@
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
+          <t>2022-03</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>order</t>
         </is>
@@ -784,12 +794,18 @@
       <c r="AY2" t="n">
         <v>259</v>
       </c>
-      <c r="AZ2" t="inlineStr">
+      <c r="AZ2" t="n">
+        <v>283</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>375</v>
+      </c>
+      <c r="BB2" t="inlineStr">
         <is>
           <t>Automotive Vehicles, Parts and Engines,  Exports,  Australia</t>
         </is>
       </c>
-      <c r="BA2" t="inlineStr"/>
+      <c r="BC2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -947,12 +963,18 @@
       <c r="AY3" t="n">
         <v>134</v>
       </c>
-      <c r="AZ3" t="inlineStr">
+      <c r="AZ3" t="n">
+        <v>201</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>235</v>
+      </c>
+      <c r="BB3" t="inlineStr">
         <is>
           <t>Automotive Vehicles, Parts and Engines,  Exports,  Belgium</t>
         </is>
       </c>
-      <c r="BA3" t="inlineStr"/>
+      <c r="BC3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1110,12 +1132,18 @@
       <c r="AY4" t="n">
         <v>118</v>
       </c>
-      <c r="AZ4" t="inlineStr">
+      <c r="AZ4" t="n">
+        <v>138</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>172</v>
+      </c>
+      <c r="BB4" t="inlineStr">
         <is>
           <t>Automotive Vehicles, Parts and Engines,  Exports,  Brazil</t>
         </is>
       </c>
-      <c r="BA4" t="inlineStr"/>
+      <c r="BC4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -1273,12 +1301,18 @@
       <c r="AY5" t="n">
         <v>4364</v>
       </c>
-      <c r="AZ5" t="inlineStr">
+      <c r="AZ5" t="n">
+        <v>5704</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>5253</v>
+      </c>
+      <c r="BB5" t="inlineStr">
         <is>
           <t>Automotive Vehicles, Parts and Engines,  Exports,  Canada</t>
         </is>
       </c>
-      <c r="BA5" t="inlineStr"/>
+      <c r="BC5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1436,12 +1470,18 @@
       <c r="AY6" t="n">
         <v>92</v>
       </c>
-      <c r="AZ6" t="inlineStr">
+      <c r="AZ6" t="n">
+        <v>74</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>105</v>
+      </c>
+      <c r="BB6" t="inlineStr">
         <is>
           <t>Automotive Vehicles, Parts and Engines,  Exports,  Chile</t>
         </is>
       </c>
-      <c r="BA6" t="inlineStr"/>
+      <c r="BC6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1599,12 +1639,18 @@
       <c r="AY7" t="n">
         <v>673</v>
       </c>
-      <c r="AZ7" t="inlineStr">
+      <c r="AZ7" t="n">
+        <v>826</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>665</v>
+      </c>
+      <c r="BB7" t="inlineStr">
         <is>
           <t>Automotive Vehicles, Parts and Engines,  Exports,  China</t>
         </is>
       </c>
-      <c r="BA7" t="inlineStr"/>
+      <c r="BC7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1762,12 +1808,18 @@
       <c r="AY8" t="n">
         <v>40</v>
       </c>
-      <c r="AZ8" t="inlineStr">
+      <c r="AZ8" t="n">
+        <v>39</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>58</v>
+      </c>
+      <c r="BB8" t="inlineStr">
         <is>
           <t>Automotive Vehicles, Parts and Engines,  Exports,  Colombia</t>
         </is>
       </c>
-      <c r="BA8" t="inlineStr"/>
+      <c r="BC8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1925,12 +1977,18 @@
       <c r="AY9" t="n">
         <v>45</v>
       </c>
-      <c r="AZ9" t="inlineStr">
+      <c r="AZ9" t="n">
+        <v>50</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>40</v>
+      </c>
+      <c r="BB9" t="inlineStr">
         <is>
           <t>Automotive Vehicles, Parts and Engines,  Exports,  France</t>
         </is>
       </c>
-      <c r="BA9" t="inlineStr"/>
+      <c r="BC9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -2088,12 +2146,18 @@
       <c r="AY10" t="n">
         <v>797</v>
       </c>
-      <c r="AZ10" t="inlineStr">
+      <c r="AZ10" t="n">
+        <v>918</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>844</v>
+      </c>
+      <c r="BB10" t="inlineStr">
         <is>
           <t>Automotive Vehicles, Parts and Engines,  Exports,  Germany</t>
         </is>
       </c>
-      <c r="BA10" t="inlineStr"/>
+      <c r="BC10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -2251,12 +2315,18 @@
       <c r="AY11" t="n">
         <v>31</v>
       </c>
-      <c r="AZ11" t="inlineStr">
+      <c r="AZ11" t="n">
+        <v>46</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>42</v>
+      </c>
+      <c r="BB11" t="inlineStr">
         <is>
           <t>Automotive Vehicles, Parts and Engines,  Exports,  Hong Kong</t>
         </is>
       </c>
-      <c r="BA11" t="inlineStr"/>
+      <c r="BC11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -2414,12 +2484,18 @@
       <c r="AY12" t="n">
         <v>175</v>
       </c>
-      <c r="AZ12" t="inlineStr">
+      <c r="AZ12" t="n">
+        <v>166</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>200</v>
+      </c>
+      <c r="BB12" t="inlineStr">
         <is>
           <t>Automotive Vehicles, Parts and Engines,  Exports,  Japan</t>
         </is>
       </c>
-      <c r="BA12" t="inlineStr"/>
+      <c r="BC12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -2577,12 +2653,18 @@
       <c r="AY13" t="n">
         <v>169</v>
       </c>
-      <c r="AZ13" t="inlineStr">
+      <c r="AZ13" t="n">
+        <v>310</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>496</v>
+      </c>
+      <c r="BB13" t="inlineStr">
         <is>
           <t>Automotive Vehicles, Parts and Engines,  Exports,  Korea, South</t>
         </is>
       </c>
-      <c r="BA13" t="inlineStr"/>
+      <c r="BC13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -2740,12 +2822,18 @@
       <c r="AY14" t="n">
         <v>70</v>
       </c>
-      <c r="AZ14" t="inlineStr">
+      <c r="AZ14" t="n">
+        <v>82</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>58</v>
+      </c>
+      <c r="BB14" t="inlineStr">
         <is>
           <t>Automotive Vehicles, Parts and Engines,  Exports,  Kuwait</t>
         </is>
       </c>
-      <c r="BA14" t="inlineStr"/>
+      <c r="BC14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -2903,12 +2991,18 @@
       <c r="AY15" t="n">
         <v>2868</v>
       </c>
-      <c r="AZ15" t="inlineStr">
+      <c r="AZ15" t="n">
+        <v>3405</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>2860</v>
+      </c>
+      <c r="BB15" t="inlineStr">
         <is>
           <t>Automotive Vehicles, Parts and Engines,  Exports,  Mexico</t>
         </is>
       </c>
-      <c r="BA15" t="inlineStr"/>
+      <c r="BC15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -3066,12 +3160,18 @@
       <c r="AY16" t="n">
         <v>85</v>
       </c>
-      <c r="AZ16" t="inlineStr">
+      <c r="AZ16" t="n">
+        <v>82</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>86</v>
+      </c>
+      <c r="BB16" t="inlineStr">
         <is>
           <t>Automotive Vehicles, Parts and Engines,  Exports,  Nigeria</t>
         </is>
       </c>
-      <c r="BA16" t="inlineStr"/>
+      <c r="BC16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -3229,12 +3329,18 @@
       <c r="AY17" t="n">
         <v>78</v>
       </c>
-      <c r="AZ17" t="inlineStr">
+      <c r="AZ17" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB17" t="inlineStr">
         <is>
           <t>Automotive Vehicles, Parts and Engines,  Exports,  Russia</t>
         </is>
       </c>
-      <c r="BA17" t="inlineStr"/>
+      <c r="BC17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -3392,12 +3498,18 @@
       <c r="AY18" t="n">
         <v>227</v>
       </c>
-      <c r="AZ18" t="inlineStr">
+      <c r="AZ18" t="n">
+        <v>164</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>157</v>
+      </c>
+      <c r="BB18" t="inlineStr">
         <is>
           <t>Automotive Vehicles, Parts and Engines,  Exports,  Saudi Arabia</t>
         </is>
       </c>
-      <c r="BA18" t="inlineStr"/>
+      <c r="BC18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -3555,12 +3667,18 @@
       <c r="AY19" t="n">
         <v>28</v>
       </c>
-      <c r="AZ19" t="inlineStr">
+      <c r="AZ19" t="n">
+        <v>39</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>45</v>
+      </c>
+      <c r="BB19" t="inlineStr">
         <is>
           <t>Automotive Vehicles, Parts and Engines,  Exports,  Singapore</t>
         </is>
       </c>
-      <c r="BA19" t="inlineStr"/>
+      <c r="BC19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -3718,12 +3836,18 @@
       <c r="AY20" t="n">
         <v>65</v>
       </c>
-      <c r="AZ20" t="inlineStr">
+      <c r="AZ20" t="n">
+        <v>89</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>87</v>
+      </c>
+      <c r="BB20" t="inlineStr">
         <is>
           <t>Automotive Vehicles, Parts and Engines,  Exports,  South Africa</t>
         </is>
       </c>
-      <c r="BA20" t="inlineStr"/>
+      <c r="BC20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -3881,12 +4005,18 @@
       <c r="AY21" t="n">
         <v>279</v>
       </c>
-      <c r="AZ21" t="inlineStr">
+      <c r="AZ21" t="n">
+        <v>316</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>298</v>
+      </c>
+      <c r="BB21" t="inlineStr">
         <is>
           <t>Automotive Vehicles, Parts and Engines,  Exports,  United Arab Emirates</t>
         </is>
       </c>
-      <c r="BA21" t="inlineStr"/>
+      <c r="BC21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -4044,12 +4174,18 @@
       <c r="AY22" t="n">
         <v>147</v>
       </c>
-      <c r="AZ22" t="inlineStr">
+      <c r="AZ22" t="n">
+        <v>138</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB22" t="inlineStr">
         <is>
           <t>Automotive Vehicles, Parts and Engines,  Exports,  United Kingdom</t>
         </is>
       </c>
-      <c r="BA22" t="inlineStr"/>
+      <c r="BC22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -4207,12 +4343,18 @@
       <c r="AY23" t="n">
         <v>5</v>
       </c>
-      <c r="AZ23" t="inlineStr">
+      <c r="AZ23" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB23" t="inlineStr">
         <is>
           <t>Automotive Vehicles, Parts and Engines,  Exports,  Venezuela</t>
         </is>
       </c>
-      <c r="BA23" t="inlineStr"/>
+      <c r="BC23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -4370,12 +4512,18 @@
       <c r="AY24" t="n">
         <v>1396</v>
       </c>
-      <c r="AZ24" t="inlineStr">
+      <c r="AZ24" t="n">
+        <v>1511</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>1586</v>
+      </c>
+      <c r="BB24" t="inlineStr">
         <is>
           <t>Automotive Vehicles, Parts and Engines,  Exports,  Other Countries</t>
         </is>
       </c>
-      <c r="BA24" t="n">
+      <c r="BC24" t="n">
         <v>134</v>
       </c>
     </row>
@@ -4531,12 +4679,14 @@
       <c r="AY25" t="n">
         <v>88</v>
       </c>
-      <c r="AZ25" t="inlineStr">
+      <c r="AZ25" t="inlineStr"/>
+      <c r="BA25" t="inlineStr"/>
+      <c r="BB25" t="inlineStr">
         <is>
           <t>Passenger cars, new and used,  Exports,  Australia</t>
         </is>
       </c>
-      <c r="BA25" t="inlineStr"/>
+      <c r="BC25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -4690,12 +4840,14 @@
       <c r="AY26" t="n">
         <v>75</v>
       </c>
-      <c r="AZ26" t="inlineStr">
+      <c r="AZ26" t="inlineStr"/>
+      <c r="BA26" t="inlineStr"/>
+      <c r="BB26" t="inlineStr">
         <is>
           <t>Passenger cars, new and used,  Exports,  Belgium</t>
         </is>
       </c>
-      <c r="BA26" t="inlineStr"/>
+      <c r="BC26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -4849,12 +5001,14 @@
       <c r="AY27" t="n">
         <v>19</v>
       </c>
-      <c r="AZ27" t="inlineStr">
+      <c r="AZ27" t="inlineStr"/>
+      <c r="BA27" t="inlineStr"/>
+      <c r="BB27" t="inlineStr">
         <is>
           <t>Passenger cars, new and used,  Exports,  Brazil</t>
         </is>
       </c>
-      <c r="BA27" t="inlineStr"/>
+      <c r="BC27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -5008,12 +5162,14 @@
       <c r="AY28" t="n">
         <v>1057</v>
       </c>
-      <c r="AZ28" t="inlineStr">
+      <c r="AZ28" t="inlineStr"/>
+      <c r="BA28" t="inlineStr"/>
+      <c r="BB28" t="inlineStr">
         <is>
           <t>Passenger cars, new and used,  Exports,  Canada</t>
         </is>
       </c>
-      <c r="BA28" t="inlineStr"/>
+      <c r="BC28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -5167,12 +5323,14 @@
       <c r="AY29" t="n">
         <v>19</v>
       </c>
-      <c r="AZ29" t="inlineStr">
+      <c r="AZ29" t="inlineStr"/>
+      <c r="BA29" t="inlineStr"/>
+      <c r="BB29" t="inlineStr">
         <is>
           <t>Passenger cars, new and used,  Exports,  Chile</t>
         </is>
       </c>
-      <c r="BA29" t="inlineStr"/>
+      <c r="BC29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -5326,12 +5484,14 @@
       <c r="AY30" t="n">
         <v>410</v>
       </c>
-      <c r="AZ30" t="inlineStr">
+      <c r="AZ30" t="inlineStr"/>
+      <c r="BA30" t="inlineStr"/>
+      <c r="BB30" t="inlineStr">
         <is>
           <t>Passenger cars, new and used,  Exports,  China</t>
         </is>
       </c>
-      <c r="BA30" t="inlineStr"/>
+      <c r="BC30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -5485,12 +5645,14 @@
       <c r="AY31" t="n">
         <v>14</v>
       </c>
-      <c r="AZ31" t="inlineStr">
+      <c r="AZ31" t="inlineStr"/>
+      <c r="BA31" t="inlineStr"/>
+      <c r="BB31" t="inlineStr">
         <is>
           <t>Passenger cars, new and used,  Exports,  Colombia</t>
         </is>
       </c>
-      <c r="BA31" t="inlineStr"/>
+      <c r="BC31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -5644,12 +5806,14 @@
       <c r="AY32" t="n">
         <v>17</v>
       </c>
-      <c r="AZ32" t="inlineStr">
+      <c r="AZ32" t="inlineStr"/>
+      <c r="BA32" t="inlineStr"/>
+      <c r="BB32" t="inlineStr">
         <is>
           <t>Passenger cars, new and used,  Exports,  France</t>
         </is>
       </c>
-      <c r="BA32" t="inlineStr"/>
+      <c r="BC32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -5803,12 +5967,14 @@
       <c r="AY33" t="n">
         <v>627</v>
       </c>
-      <c r="AZ33" t="inlineStr">
+      <c r="AZ33" t="inlineStr"/>
+      <c r="BA33" t="inlineStr"/>
+      <c r="BB33" t="inlineStr">
         <is>
           <t>Passenger cars, new and used,  Exports,  Germany</t>
         </is>
       </c>
-      <c r="BA33" t="inlineStr"/>
+      <c r="BC33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -5966,12 +6132,14 @@
       <c r="AY34" t="n">
         <v>1</v>
       </c>
-      <c r="AZ34" t="inlineStr">
+      <c r="AZ34" t="inlineStr"/>
+      <c r="BA34" t="inlineStr"/>
+      <c r="BB34" t="inlineStr">
         <is>
           <t>Passenger cars, new and used,  Exports,  Hong Kong</t>
         </is>
       </c>
-      <c r="BA34" t="inlineStr"/>
+      <c r="BC34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -6125,12 +6293,14 @@
       <c r="AY35" t="n">
         <v>59</v>
       </c>
-      <c r="AZ35" t="inlineStr">
+      <c r="AZ35" t="inlineStr"/>
+      <c r="BA35" t="inlineStr"/>
+      <c r="BB35" t="inlineStr">
         <is>
           <t>Passenger cars, new and used,  Exports,  Japan</t>
         </is>
       </c>
-      <c r="BA35" t="inlineStr"/>
+      <c r="BC35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -6284,12 +6454,14 @@
       <c r="AY36" t="n">
         <v>116</v>
       </c>
-      <c r="AZ36" t="inlineStr">
+      <c r="AZ36" t="inlineStr"/>
+      <c r="BA36" t="inlineStr"/>
+      <c r="BB36" t="inlineStr">
         <is>
           <t>Passenger cars, new and used,  Exports,  Korea, South</t>
         </is>
       </c>
-      <c r="BA36" t="inlineStr"/>
+      <c r="BC36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -6443,12 +6615,14 @@
       <c r="AY37" t="n">
         <v>57</v>
       </c>
-      <c r="AZ37" t="inlineStr">
+      <c r="AZ37" t="inlineStr"/>
+      <c r="BA37" t="inlineStr"/>
+      <c r="BB37" t="inlineStr">
         <is>
           <t>Passenger cars, new and used,  Exports,  Kuwait</t>
         </is>
       </c>
-      <c r="BA37" t="inlineStr"/>
+      <c r="BC37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -6602,12 +6776,14 @@
       <c r="AY38" t="n">
         <v>214</v>
       </c>
-      <c r="AZ38" t="inlineStr">
+      <c r="AZ38" t="inlineStr"/>
+      <c r="BA38" t="inlineStr"/>
+      <c r="BB38" t="inlineStr">
         <is>
           <t>Passenger cars, new and used,  Exports,  Mexico</t>
         </is>
       </c>
-      <c r="BA38" t="inlineStr"/>
+      <c r="BC38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -6761,12 +6937,14 @@
       <c r="AY39" t="n">
         <v>53</v>
       </c>
-      <c r="AZ39" t="inlineStr">
+      <c r="AZ39" t="inlineStr"/>
+      <c r="BA39" t="inlineStr"/>
+      <c r="BB39" t="inlineStr">
         <is>
           <t>Passenger cars, new and used,  Exports,  Nigeria</t>
         </is>
       </c>
-      <c r="BA39" t="inlineStr"/>
+      <c r="BC39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -6920,12 +7098,14 @@
       <c r="AY40" t="n">
         <v>27</v>
       </c>
-      <c r="AZ40" t="inlineStr">
+      <c r="AZ40" t="inlineStr"/>
+      <c r="BA40" t="inlineStr"/>
+      <c r="BB40" t="inlineStr">
         <is>
           <t>Passenger cars, new and used,  Exports,  Russia</t>
         </is>
       </c>
-      <c r="BA40" t="inlineStr"/>
+      <c r="BC40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -7079,12 +7259,14 @@
       <c r="AY41" t="n">
         <v>209</v>
       </c>
-      <c r="AZ41" t="inlineStr">
+      <c r="AZ41" t="inlineStr"/>
+      <c r="BA41" t="inlineStr"/>
+      <c r="BB41" t="inlineStr">
         <is>
           <t>Passenger cars, new and used,  Exports,  Saudi Arabia</t>
         </is>
       </c>
-      <c r="BA41" t="inlineStr"/>
+      <c r="BC41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -7256,12 +7438,14 @@
       <c r="AY42" t="n">
         <v>4</v>
       </c>
-      <c r="AZ42" t="inlineStr">
+      <c r="AZ42" t="inlineStr"/>
+      <c r="BA42" t="inlineStr"/>
+      <c r="BB42" t="inlineStr">
         <is>
           <t>Passenger cars, new and used,  Exports,  Singapore</t>
         </is>
       </c>
-      <c r="BA42" t="inlineStr"/>
+      <c r="BC42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -7419,12 +7603,14 @@
       <c r="AY43" t="n">
         <v>15</v>
       </c>
-      <c r="AZ43" t="inlineStr">
+      <c r="AZ43" t="inlineStr"/>
+      <c r="BA43" t="inlineStr"/>
+      <c r="BB43" t="inlineStr">
         <is>
           <t>Passenger cars, new and used,  Exports,  South Africa</t>
         </is>
       </c>
-      <c r="BA43" t="inlineStr"/>
+      <c r="BC43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -7578,12 +7764,14 @@
       <c r="AY44" t="n">
         <v>195</v>
       </c>
-      <c r="AZ44" t="inlineStr">
+      <c r="AZ44" t="inlineStr"/>
+      <c r="BA44" t="inlineStr"/>
+      <c r="BB44" t="inlineStr">
         <is>
           <t>Passenger cars, new and used,  Exports,  United Arab Emirates</t>
         </is>
       </c>
-      <c r="BA44" t="inlineStr"/>
+      <c r="BC44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -7737,12 +7925,14 @@
       <c r="AY45" t="n">
         <v>64</v>
       </c>
-      <c r="AZ45" t="inlineStr">
+      <c r="AZ45" t="inlineStr"/>
+      <c r="BA45" t="inlineStr"/>
+      <c r="BB45" t="inlineStr">
         <is>
           <t>Passenger cars, new and used,  Exports,  United Kingdom</t>
         </is>
       </c>
-      <c r="BA45" t="inlineStr"/>
+      <c r="BC45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -7896,12 +8086,14 @@
       <c r="AY46" t="n">
         <v>1</v>
       </c>
-      <c r="AZ46" t="inlineStr">
+      <c r="AZ46" t="inlineStr"/>
+      <c r="BA46" t="inlineStr"/>
+      <c r="BB46" t="inlineStr">
         <is>
           <t>Passenger cars, new and used,  Exports,  Venezuela</t>
         </is>
       </c>
-      <c r="BA46" t="inlineStr"/>
+      <c r="BC46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -8055,12 +8247,14 @@
       <c r="AY47" t="n">
         <v>707</v>
       </c>
-      <c r="AZ47" t="inlineStr">
+      <c r="AZ47" t="inlineStr"/>
+      <c r="BA47" t="inlineStr"/>
+      <c r="BB47" t="inlineStr">
         <is>
           <t>Passenger cars, new and used,  Exports,  Other Countries</t>
         </is>
       </c>
-      <c r="BA47" t="n">
+      <c r="BC47" t="n">
         <v>141</v>
       </c>
     </row>
@@ -8216,12 +8410,14 @@
       <c r="AY48" t="n">
         <v>71</v>
       </c>
-      <c r="AZ48" t="inlineStr">
+      <c r="AZ48" t="inlineStr"/>
+      <c r="BA48" t="inlineStr"/>
+      <c r="BB48" t="inlineStr">
         <is>
           <t>Trucks, buses and special purpose vehicles,  Exports,  Australia</t>
         </is>
       </c>
-      <c r="BA48" t="inlineStr"/>
+      <c r="BC48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -8379,12 +8575,14 @@
       <c r="AY49" t="n">
         <v>18</v>
       </c>
-      <c r="AZ49" t="inlineStr">
+      <c r="AZ49" t="inlineStr"/>
+      <c r="BA49" t="inlineStr"/>
+      <c r="BB49" t="inlineStr">
         <is>
           <t>Trucks, buses and special purpose vehicles,  Exports,  Belgium</t>
         </is>
       </c>
-      <c r="BA49" t="inlineStr"/>
+      <c r="BC49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -8548,12 +8746,14 @@
       <c r="AY50" t="n">
         <v>4</v>
       </c>
-      <c r="AZ50" t="inlineStr">
+      <c r="AZ50" t="inlineStr"/>
+      <c r="BA50" t="inlineStr"/>
+      <c r="BB50" t="inlineStr">
         <is>
           <t>Trucks, buses and special purpose vehicles,  Exports,  Brazil</t>
         </is>
       </c>
-      <c r="BA50" t="inlineStr"/>
+      <c r="BC50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -8707,12 +8907,14 @@
       <c r="AY51" t="n">
         <v>1151</v>
       </c>
-      <c r="AZ51" t="inlineStr">
+      <c r="AZ51" t="inlineStr"/>
+      <c r="BA51" t="inlineStr"/>
+      <c r="BB51" t="inlineStr">
         <is>
           <t>Trucks, buses and special purpose vehicles,  Exports,  Canada</t>
         </is>
       </c>
-      <c r="BA51" t="inlineStr"/>
+      <c r="BC51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -8866,12 +9068,14 @@
       <c r="AY52" t="n">
         <v>43</v>
       </c>
-      <c r="AZ52" t="inlineStr">
+      <c r="AZ52" t="inlineStr"/>
+      <c r="BA52" t="inlineStr"/>
+      <c r="BB52" t="inlineStr">
         <is>
           <t>Trucks, buses and special purpose vehicles,  Exports,  Chile</t>
         </is>
       </c>
-      <c r="BA52" t="inlineStr"/>
+      <c r="BC52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -9025,12 +9229,14 @@
       <c r="AY53" t="n">
         <v>4</v>
       </c>
-      <c r="AZ53" t="inlineStr">
+      <c r="AZ53" t="inlineStr"/>
+      <c r="BA53" t="inlineStr"/>
+      <c r="BB53" t="inlineStr">
         <is>
           <t>Trucks, buses and special purpose vehicles,  Exports,  China</t>
         </is>
       </c>
-      <c r="BA53" t="inlineStr"/>
+      <c r="BC53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -9186,12 +9392,14 @@
       <c r="AY54" t="n">
         <v>4</v>
       </c>
-      <c r="AZ54" t="inlineStr">
+      <c r="AZ54" t="inlineStr"/>
+      <c r="BA54" t="inlineStr"/>
+      <c r="BB54" t="inlineStr">
         <is>
           <t>Trucks, buses and special purpose vehicles,  Exports,  Colombia</t>
         </is>
       </c>
-      <c r="BA54" t="inlineStr"/>
+      <c r="BC54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -9351,12 +9559,14 @@
       <c r="AY55" t="n">
         <v>2</v>
       </c>
-      <c r="AZ55" t="inlineStr">
+      <c r="AZ55" t="inlineStr"/>
+      <c r="BA55" t="inlineStr"/>
+      <c r="BB55" t="inlineStr">
         <is>
           <t>Trucks, buses and special purpose vehicles,  Exports,  France</t>
         </is>
       </c>
-      <c r="BA55" t="inlineStr"/>
+      <c r="BC55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -9510,12 +9720,14 @@
       <c r="AY56" t="n">
         <v>5</v>
       </c>
-      <c r="AZ56" t="inlineStr">
+      <c r="AZ56" t="inlineStr"/>
+      <c r="BA56" t="inlineStr"/>
+      <c r="BB56" t="inlineStr">
         <is>
           <t>Trucks, buses and special purpose vehicles,  Exports,  Germany</t>
         </is>
       </c>
-      <c r="BA56" t="inlineStr"/>
+      <c r="BC56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -9743,12 +9955,14 @@
           <t>(-)</t>
         </is>
       </c>
-      <c r="AZ57" t="inlineStr">
+      <c r="AZ57" t="inlineStr"/>
+      <c r="BA57" t="inlineStr"/>
+      <c r="BB57" t="inlineStr">
         <is>
           <t>Trucks, buses and special purpose vehicles,  Exports,  Hong Kong</t>
         </is>
       </c>
-      <c r="BA57" t="inlineStr"/>
+      <c r="BC57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -9902,12 +10116,14 @@
       <c r="AY58" t="n">
         <v>6</v>
       </c>
-      <c r="AZ58" t="inlineStr">
+      <c r="AZ58" t="inlineStr"/>
+      <c r="BA58" t="inlineStr"/>
+      <c r="BB58" t="inlineStr">
         <is>
           <t>Trucks, buses and special purpose vehicles,  Exports,  Japan</t>
         </is>
       </c>
-      <c r="BA58" t="inlineStr"/>
+      <c r="BC58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -10061,12 +10277,14 @@
       <c r="AY59" t="n">
         <v>4</v>
       </c>
-      <c r="AZ59" t="inlineStr">
+      <c r="AZ59" t="inlineStr"/>
+      <c r="BA59" t="inlineStr"/>
+      <c r="BB59" t="inlineStr">
         <is>
           <t>Trucks, buses and special purpose vehicles,  Exports,  Korea, South</t>
         </is>
       </c>
-      <c r="BA59" t="inlineStr"/>
+      <c r="BC59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -10220,12 +10438,14 @@
       <c r="AY60" t="n">
         <v>9</v>
       </c>
-      <c r="AZ60" t="inlineStr">
+      <c r="AZ60" t="inlineStr"/>
+      <c r="BA60" t="inlineStr"/>
+      <c r="BB60" t="inlineStr">
         <is>
           <t>Trucks, buses and special purpose vehicles,  Exports,  Kuwait</t>
         </is>
       </c>
-      <c r="BA60" t="inlineStr"/>
+      <c r="BC60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -10379,12 +10599,14 @@
       <c r="AY61" t="n">
         <v>91</v>
       </c>
-      <c r="AZ61" t="inlineStr">
+      <c r="AZ61" t="inlineStr"/>
+      <c r="BA61" t="inlineStr"/>
+      <c r="BB61" t="inlineStr">
         <is>
           <t>Trucks, buses and special purpose vehicles,  Exports,  Mexico</t>
         </is>
       </c>
-      <c r="BA61" t="inlineStr"/>
+      <c r="BC61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -10538,12 +10760,14 @@
       <c r="AY62" t="n">
         <v>18</v>
       </c>
-      <c r="AZ62" t="inlineStr">
+      <c r="AZ62" t="inlineStr"/>
+      <c r="BA62" t="inlineStr"/>
+      <c r="BB62" t="inlineStr">
         <is>
           <t>Trucks, buses and special purpose vehicles,  Exports,  Nigeria</t>
         </is>
       </c>
-      <c r="BA62" t="inlineStr"/>
+      <c r="BC62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -10699,12 +10923,14 @@
       <c r="AY63" t="n">
         <v>17</v>
       </c>
-      <c r="AZ63" t="inlineStr">
+      <c r="AZ63" t="inlineStr"/>
+      <c r="BA63" t="inlineStr"/>
+      <c r="BB63" t="inlineStr">
         <is>
           <t>Trucks, buses and special purpose vehicles,  Exports,  Russia</t>
         </is>
       </c>
-      <c r="BA63" t="inlineStr"/>
+      <c r="BC63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -10858,12 +11084,14 @@
       <c r="AY64" t="n">
         <v>9</v>
       </c>
-      <c r="AZ64" t="inlineStr">
+      <c r="AZ64" t="inlineStr"/>
+      <c r="BA64" t="inlineStr"/>
+      <c r="BB64" t="inlineStr">
         <is>
           <t>Trucks, buses and special purpose vehicles,  Exports,  Saudi Arabia</t>
         </is>
       </c>
-      <c r="BA64" t="inlineStr"/>
+      <c r="BC64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -11073,12 +11301,14 @@
           <t>(-)</t>
         </is>
       </c>
-      <c r="AZ65" t="inlineStr">
+      <c r="AZ65" t="inlineStr"/>
+      <c r="BA65" t="inlineStr"/>
+      <c r="BB65" t="inlineStr">
         <is>
           <t>Trucks, buses and special purpose vehicles,  Exports,  Singapore</t>
         </is>
       </c>
-      <c r="BA65" t="inlineStr"/>
+      <c r="BC65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -11236,12 +11466,14 @@
       <c r="AY66" t="n">
         <v>1</v>
       </c>
-      <c r="AZ66" t="inlineStr">
+      <c r="AZ66" t="inlineStr"/>
+      <c r="BA66" t="inlineStr"/>
+      <c r="BB66" t="inlineStr">
         <is>
           <t>Trucks, buses and special purpose vehicles,  Exports,  South Africa</t>
         </is>
       </c>
-      <c r="BA66" t="inlineStr"/>
+      <c r="BC66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -11395,12 +11627,14 @@
       <c r="AY67" t="n">
         <v>18</v>
       </c>
-      <c r="AZ67" t="inlineStr">
+      <c r="AZ67" t="inlineStr"/>
+      <c r="BA67" t="inlineStr"/>
+      <c r="BB67" t="inlineStr">
         <is>
           <t>Trucks, buses and special purpose vehicles,  Exports,  United Arab Emirates</t>
         </is>
       </c>
-      <c r="BA67" t="inlineStr"/>
+      <c r="BC67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -11554,12 +11788,14 @@
       <c r="AY68" t="n">
         <v>3</v>
       </c>
-      <c r="AZ68" t="inlineStr">
+      <c r="AZ68" t="inlineStr"/>
+      <c r="BA68" t="inlineStr"/>
+      <c r="BB68" t="inlineStr">
         <is>
           <t>Trucks, buses and special purpose vehicles,  Exports,  United Kingdom</t>
         </is>
       </c>
-      <c r="BA68" t="inlineStr"/>
+      <c r="BC68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -11783,12 +12019,14 @@
           <t>(-)</t>
         </is>
       </c>
-      <c r="AZ69" t="inlineStr">
+      <c r="AZ69" t="inlineStr"/>
+      <c r="BA69" t="inlineStr"/>
+      <c r="BB69" t="inlineStr">
         <is>
           <t>Trucks, buses and special purpose vehicles,  Exports,  Venezuela</t>
         </is>
       </c>
-      <c r="BA69" t="inlineStr"/>
+      <c r="BC69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -11942,12 +12180,14 @@
       <c r="AY70" t="n">
         <v>111</v>
       </c>
-      <c r="AZ70" t="inlineStr">
+      <c r="AZ70" t="inlineStr"/>
+      <c r="BA70" t="inlineStr"/>
+      <c r="BB70" t="inlineStr">
         <is>
           <t>Trucks, buses and special purpose vehicles,  Exports,  Other Countries</t>
         </is>
       </c>
-      <c r="BA70" t="n">
+      <c r="BC70" t="n">
         <v>142</v>
       </c>
     </row>
@@ -12103,12 +12343,14 @@
       <c r="AY71" t="n">
         <v>99</v>
       </c>
-      <c r="AZ71" t="inlineStr">
+      <c r="AZ71" t="inlineStr"/>
+      <c r="BA71" t="inlineStr"/>
+      <c r="BB71" t="inlineStr">
         <is>
           <t>Total parts,  Exports,  Australia</t>
         </is>
       </c>
-      <c r="BA71" t="inlineStr"/>
+      <c r="BC71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -12262,12 +12504,14 @@
       <c r="AY72" t="n">
         <v>41</v>
       </c>
-      <c r="AZ72" t="inlineStr">
+      <c r="AZ72" t="inlineStr"/>
+      <c r="BA72" t="inlineStr"/>
+      <c r="BB72" t="inlineStr">
         <is>
           <t>Total parts,  Exports,  Belgium</t>
         </is>
       </c>
-      <c r="BA72" t="inlineStr"/>
+      <c r="BC72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -12421,12 +12665,14 @@
       <c r="AY73" t="n">
         <v>95</v>
       </c>
-      <c r="AZ73" t="inlineStr">
+      <c r="AZ73" t="inlineStr"/>
+      <c r="BA73" t="inlineStr"/>
+      <c r="BB73" t="inlineStr">
         <is>
           <t>Total parts,  Exports,  Brazil</t>
         </is>
       </c>
-      <c r="BA73" t="inlineStr"/>
+      <c r="BC73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -12580,12 +12826,14 @@
       <c r="AY74" t="n">
         <v>2156</v>
       </c>
-      <c r="AZ74" t="inlineStr">
+      <c r="AZ74" t="inlineStr"/>
+      <c r="BA74" t="inlineStr"/>
+      <c r="BB74" t="inlineStr">
         <is>
           <t>Total parts,  Exports,  Canada</t>
         </is>
       </c>
-      <c r="BA74" t="inlineStr"/>
+      <c r="BC74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -12739,12 +12987,14 @@
       <c r="AY75" t="n">
         <v>31</v>
       </c>
-      <c r="AZ75" t="inlineStr">
+      <c r="AZ75" t="inlineStr"/>
+      <c r="BA75" t="inlineStr"/>
+      <c r="BB75" t="inlineStr">
         <is>
           <t>Total parts,  Exports,  Chile</t>
         </is>
       </c>
-      <c r="BA75" t="inlineStr"/>
+      <c r="BC75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -12898,12 +13148,14 @@
       <c r="AY76" t="n">
         <v>259</v>
       </c>
-      <c r="AZ76" t="inlineStr">
+      <c r="AZ76" t="inlineStr"/>
+      <c r="BA76" t="inlineStr"/>
+      <c r="BB76" t="inlineStr">
         <is>
           <t>Total parts,  Exports,  China</t>
         </is>
       </c>
-      <c r="BA76" t="inlineStr"/>
+      <c r="BC76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -13057,12 +13309,14 @@
       <c r="AY77" t="n">
         <v>21</v>
       </c>
-      <c r="AZ77" t="inlineStr">
+      <c r="AZ77" t="inlineStr"/>
+      <c r="BA77" t="inlineStr"/>
+      <c r="BB77" t="inlineStr">
         <is>
           <t>Total parts,  Exports,  Colombia</t>
         </is>
       </c>
-      <c r="BA77" t="inlineStr"/>
+      <c r="BC77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -13216,12 +13470,14 @@
       <c r="AY78" t="n">
         <v>25</v>
       </c>
-      <c r="AZ78" t="inlineStr">
+      <c r="AZ78" t="inlineStr"/>
+      <c r="BA78" t="inlineStr"/>
+      <c r="BB78" t="inlineStr">
         <is>
           <t>Total parts,  Exports,  France</t>
         </is>
       </c>
-      <c r="BA78" t="inlineStr"/>
+      <c r="BC78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -13375,12 +13631,14 @@
       <c r="AY79" t="n">
         <v>165</v>
       </c>
-      <c r="AZ79" t="inlineStr">
+      <c r="AZ79" t="inlineStr"/>
+      <c r="BA79" t="inlineStr"/>
+      <c r="BB79" t="inlineStr">
         <is>
           <t>Total parts,  Exports,  Germany</t>
         </is>
       </c>
-      <c r="BA79" t="inlineStr"/>
+      <c r="BC79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
@@ -13534,12 +13792,14 @@
       <c r="AY80" t="n">
         <v>30</v>
       </c>
-      <c r="AZ80" t="inlineStr">
+      <c r="AZ80" t="inlineStr"/>
+      <c r="BA80" t="inlineStr"/>
+      <c r="BB80" t="inlineStr">
         <is>
           <t>Total parts,  Exports,  Hong Kong</t>
         </is>
       </c>
-      <c r="BA80" t="inlineStr"/>
+      <c r="BC80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -13693,12 +13953,14 @@
       <c r="AY81" t="n">
         <v>111</v>
       </c>
-      <c r="AZ81" t="inlineStr">
+      <c r="AZ81" t="inlineStr"/>
+      <c r="BA81" t="inlineStr"/>
+      <c r="BB81" t="inlineStr">
         <is>
           <t>Total parts,  Exports,  Japan</t>
         </is>
       </c>
-      <c r="BA81" t="inlineStr"/>
+      <c r="BC81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -13852,12 +14114,14 @@
       <c r="AY82" t="n">
         <v>49</v>
       </c>
-      <c r="AZ82" t="inlineStr">
+      <c r="AZ82" t="inlineStr"/>
+      <c r="BA82" t="inlineStr"/>
+      <c r="BB82" t="inlineStr">
         <is>
           <t>Total parts,  Exports,  Korea, South</t>
         </is>
       </c>
-      <c r="BA82" t="inlineStr"/>
+      <c r="BC82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
@@ -14011,12 +14275,14 @@
       <c r="AY83" t="n">
         <v>4</v>
       </c>
-      <c r="AZ83" t="inlineStr">
+      <c r="AZ83" t="inlineStr"/>
+      <c r="BA83" t="inlineStr"/>
+      <c r="BB83" t="inlineStr">
         <is>
           <t>Total parts,  Exports,  Kuwait</t>
         </is>
       </c>
-      <c r="BA83" t="inlineStr"/>
+      <c r="BC83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
@@ -14170,12 +14436,14 @@
       <c r="AY84" t="n">
         <v>2564</v>
       </c>
-      <c r="AZ84" t="inlineStr">
+      <c r="AZ84" t="inlineStr"/>
+      <c r="BA84" t="inlineStr"/>
+      <c r="BB84" t="inlineStr">
         <is>
           <t>Total parts,  Exports,  Mexico</t>
         </is>
       </c>
-      <c r="BA84" t="inlineStr"/>
+      <c r="BC84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
@@ -14329,12 +14597,14 @@
       <c r="AY85" t="n">
         <v>14</v>
       </c>
-      <c r="AZ85" t="inlineStr">
+      <c r="AZ85" t="inlineStr"/>
+      <c r="BA85" t="inlineStr"/>
+      <c r="BB85" t="inlineStr">
         <is>
           <t>Total parts,  Exports,  Nigeria</t>
         </is>
       </c>
-      <c r="BA85" t="inlineStr"/>
+      <c r="BC85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -14488,12 +14758,14 @@
       <c r="AY86" t="n">
         <v>34</v>
       </c>
-      <c r="AZ86" t="inlineStr">
+      <c r="AZ86" t="inlineStr"/>
+      <c r="BA86" t="inlineStr"/>
+      <c r="BB86" t="inlineStr">
         <is>
           <t>Total parts,  Exports,  Russia</t>
         </is>
       </c>
-      <c r="BA86" t="inlineStr"/>
+      <c r="BC86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
@@ -14647,12 +14919,14 @@
       <c r="AY87" t="n">
         <v>10</v>
       </c>
-      <c r="AZ87" t="inlineStr">
+      <c r="AZ87" t="inlineStr"/>
+      <c r="BA87" t="inlineStr"/>
+      <c r="BB87" t="inlineStr">
         <is>
           <t>Total parts,  Exports,  Saudi Arabia</t>
         </is>
       </c>
-      <c r="BA87" t="inlineStr"/>
+      <c r="BC87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
@@ -14806,12 +15080,14 @@
       <c r="AY88" t="n">
         <v>24</v>
       </c>
-      <c r="AZ88" t="inlineStr">
+      <c r="AZ88" t="inlineStr"/>
+      <c r="BA88" t="inlineStr"/>
+      <c r="BB88" t="inlineStr">
         <is>
           <t>Total parts,  Exports,  Singapore</t>
         </is>
       </c>
-      <c r="BA88" t="inlineStr"/>
+      <c r="BC88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
@@ -14965,12 +15241,14 @@
       <c r="AY89" t="n">
         <v>48</v>
       </c>
-      <c r="AZ89" t="inlineStr">
+      <c r="AZ89" t="inlineStr"/>
+      <c r="BA89" t="inlineStr"/>
+      <c r="BB89" t="inlineStr">
         <is>
           <t>Total parts,  Exports,  South Africa</t>
         </is>
       </c>
-      <c r="BA89" t="inlineStr"/>
+      <c r="BC89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
@@ -15124,12 +15402,14 @@
       <c r="AY90" t="n">
         <v>66</v>
       </c>
-      <c r="AZ90" t="inlineStr">
+      <c r="AZ90" t="inlineStr"/>
+      <c r="BA90" t="inlineStr"/>
+      <c r="BB90" t="inlineStr">
         <is>
           <t>Total parts,  Exports,  United Arab Emirates</t>
         </is>
       </c>
-      <c r="BA90" t="inlineStr"/>
+      <c r="BC90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
@@ -15283,12 +15563,14 @@
       <c r="AY91" t="n">
         <v>80</v>
       </c>
-      <c r="AZ91" t="inlineStr">
+      <c r="AZ91" t="inlineStr"/>
+      <c r="BA91" t="inlineStr"/>
+      <c r="BB91" t="inlineStr">
         <is>
           <t>Total parts,  Exports,  United Kingdom</t>
         </is>
       </c>
-      <c r="BA91" t="inlineStr"/>
+      <c r="BC91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
@@ -15442,12 +15724,14 @@
       <c r="AY92" t="n">
         <v>4</v>
       </c>
-      <c r="AZ92" t="inlineStr">
+      <c r="AZ92" t="inlineStr"/>
+      <c r="BA92" t="inlineStr"/>
+      <c r="BB92" t="inlineStr">
         <is>
           <t>Total parts,  Exports,  Venezuela</t>
         </is>
       </c>
-      <c r="BA92" t="inlineStr"/>
+      <c r="BC92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
@@ -15601,12 +15885,14 @@
       <c r="AY93" t="n">
         <v>578</v>
       </c>
-      <c r="AZ93" t="inlineStr">
+      <c r="AZ93" t="inlineStr"/>
+      <c r="BA93" t="inlineStr"/>
+      <c r="BB93" t="inlineStr">
         <is>
           <t>Total parts,  Exports,  Other Countries</t>
         </is>
       </c>
-      <c r="BA93" t="n">
+      <c r="BC93" t="n">
         <v>138</v>
       </c>
     </row>
@@ -15762,12 +16048,14 @@
       <c r="AY94" t="n">
         <v>206</v>
       </c>
-      <c r="AZ94" t="inlineStr">
+      <c r="AZ94" t="inlineStr"/>
+      <c r="BA94" t="inlineStr"/>
+      <c r="BB94" t="inlineStr">
         <is>
           <t>Automotive Vehicles, Parts and Engines,  Imports,  Austria</t>
         </is>
       </c>
-      <c r="BA94" t="inlineStr"/>
+      <c r="BC94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
@@ -15921,12 +16209,14 @@
       <c r="AY95" t="n">
         <v>73</v>
       </c>
-      <c r="AZ95" t="inlineStr">
+      <c r="AZ95" t="inlineStr"/>
+      <c r="BA95" t="inlineStr"/>
+      <c r="BB95" t="inlineStr">
         <is>
           <t>Automotive Vehicles, Parts and Engines,  Imports,  Brazil</t>
         </is>
       </c>
-      <c r="BA95" t="inlineStr"/>
+      <c r="BC95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
@@ -16080,12 +16370,14 @@
       <c r="AY96" t="n">
         <v>3207</v>
       </c>
-      <c r="AZ96" t="inlineStr">
+      <c r="AZ96" t="inlineStr"/>
+      <c r="BA96" t="inlineStr"/>
+      <c r="BB96" t="inlineStr">
         <is>
           <t>Automotive Vehicles, Parts and Engines,  Imports,  Canada</t>
         </is>
       </c>
-      <c r="BA96" t="inlineStr"/>
+      <c r="BC96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
@@ -16239,12 +16531,14 @@
       <c r="AY97" t="n">
         <v>1528</v>
       </c>
-      <c r="AZ97" t="inlineStr">
+      <c r="AZ97" t="inlineStr"/>
+      <c r="BA97" t="inlineStr"/>
+      <c r="BB97" t="inlineStr">
         <is>
           <t>Automotive Vehicles, Parts and Engines,  Imports,  China</t>
         </is>
       </c>
-      <c r="BA97" t="inlineStr"/>
+      <c r="BC97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
@@ -16398,12 +16692,14 @@
       <c r="AY98" t="n">
         <v>1562</v>
       </c>
-      <c r="AZ98" t="inlineStr">
+      <c r="AZ98" t="inlineStr"/>
+      <c r="BA98" t="inlineStr"/>
+      <c r="BB98" t="inlineStr">
         <is>
           <t>Automotive Vehicles, Parts and Engines,  Imports,  Germany</t>
         </is>
       </c>
-      <c r="BA98" t="inlineStr"/>
+      <c r="BC98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
@@ -16557,12 +16853,14 @@
       <c r="AY99" t="n">
         <v>317</v>
       </c>
-      <c r="AZ99" t="inlineStr">
+      <c r="AZ99" t="inlineStr"/>
+      <c r="BA99" t="inlineStr"/>
+      <c r="BB99" t="inlineStr">
         <is>
           <t>Automotive Vehicles, Parts and Engines,  Imports,  Italy</t>
         </is>
       </c>
-      <c r="BA99" t="inlineStr"/>
+      <c r="BC99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
@@ -16716,12 +17014,14 @@
       <c r="AY100" t="n">
         <v>3492</v>
       </c>
-      <c r="AZ100" t="inlineStr">
+      <c r="AZ100" t="inlineStr"/>
+      <c r="BA100" t="inlineStr"/>
+      <c r="BB100" t="inlineStr">
         <is>
           <t>Automotive Vehicles, Parts and Engines,  Imports,  Japan</t>
         </is>
       </c>
-      <c r="BA100" t="inlineStr"/>
+      <c r="BC100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
@@ -16875,12 +17175,14 @@
       <c r="AY101" t="n">
         <v>2406</v>
       </c>
-      <c r="AZ101" t="inlineStr">
+      <c r="AZ101" t="inlineStr"/>
+      <c r="BA101" t="inlineStr"/>
+      <c r="BB101" t="inlineStr">
         <is>
           <t>Automotive Vehicles, Parts and Engines,  Imports,  Korea, South</t>
         </is>
       </c>
-      <c r="BA101" t="inlineStr"/>
+      <c r="BC101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
@@ -17034,12 +17336,14 @@
       <c r="AY102" t="n">
         <v>10453</v>
       </c>
-      <c r="AZ102" t="inlineStr">
+      <c r="AZ102" t="inlineStr"/>
+      <c r="BA102" t="inlineStr"/>
+      <c r="BB102" t="inlineStr">
         <is>
           <t>Automotive Vehicles, Parts and Engines,  Imports,  Mexico</t>
         </is>
       </c>
-      <c r="BA102" t="inlineStr"/>
+      <c r="BC102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
@@ -17193,12 +17497,14 @@
       <c r="AY103" t="n">
         <v>57</v>
       </c>
-      <c r="AZ103" t="inlineStr">
+      <c r="AZ103" t="inlineStr"/>
+      <c r="BA103" t="inlineStr"/>
+      <c r="BB103" t="inlineStr">
         <is>
           <t>Automotive Vehicles, Parts and Engines,  Imports,  South Africa</t>
         </is>
       </c>
-      <c r="BA103" t="inlineStr"/>
+      <c r="BC103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
@@ -17352,12 +17658,14 @@
       <c r="AY104" t="n">
         <v>174</v>
       </c>
-      <c r="AZ104" t="inlineStr">
+      <c r="AZ104" t="inlineStr"/>
+      <c r="BA104" t="inlineStr"/>
+      <c r="BB104" t="inlineStr">
         <is>
           <t>Automotive Vehicles, Parts and Engines,  Imports,  Sweden</t>
         </is>
       </c>
-      <c r="BA104" t="inlineStr"/>
+      <c r="BC104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
@@ -17511,12 +17819,14 @@
       <c r="AY105" t="n">
         <v>333</v>
       </c>
-      <c r="AZ105" t="inlineStr">
+      <c r="AZ105" t="inlineStr"/>
+      <c r="BA105" t="inlineStr"/>
+      <c r="BB105" t="inlineStr">
         <is>
           <t>Automotive Vehicles, Parts and Engines,  Imports,  Taiwan</t>
         </is>
       </c>
-      <c r="BA105" t="inlineStr"/>
+      <c r="BC105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
@@ -17670,12 +17980,14 @@
       <c r="AY106" t="n">
         <v>470</v>
       </c>
-      <c r="AZ106" t="inlineStr">
+      <c r="AZ106" t="inlineStr"/>
+      <c r="BA106" t="inlineStr"/>
+      <c r="BB106" t="inlineStr">
         <is>
           <t>Automotive Vehicles, Parts and Engines,  Imports,  Thailand</t>
         </is>
       </c>
-      <c r="BA106" t="inlineStr"/>
+      <c r="BC106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
@@ -17829,12 +18141,14 @@
       <c r="AY107" t="n">
         <v>509</v>
       </c>
-      <c r="AZ107" t="inlineStr">
+      <c r="AZ107" t="inlineStr"/>
+      <c r="BA107" t="inlineStr"/>
+      <c r="BB107" t="inlineStr">
         <is>
           <t>Automotive Vehicles, Parts and Engines,  Imports,  United Kingdom</t>
         </is>
       </c>
-      <c r="BA107" t="inlineStr"/>
+      <c r="BC107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
@@ -17988,12 +18302,14 @@
       <c r="AY108" t="n">
         <v>2214</v>
       </c>
-      <c r="AZ108" t="inlineStr">
+      <c r="AZ108" t="inlineStr"/>
+      <c r="BA108" t="inlineStr"/>
+      <c r="BB108" t="inlineStr">
         <is>
           <t>Automotive Vehicles, Parts and Engines,  Imports,  Other Countries</t>
         </is>
       </c>
-      <c r="BA108" t="n">
+      <c r="BC108" t="n">
         <v>134</v>
       </c>
     </row>
@@ -18149,12 +18465,14 @@
       <c r="AY109" t="n">
         <v>80</v>
       </c>
-      <c r="AZ109" t="inlineStr">
+      <c r="AZ109" t="inlineStr"/>
+      <c r="BA109" t="inlineStr"/>
+      <c r="BB109" t="inlineStr">
         <is>
           <t>Passenger cars, new and used,  Imports,  Austria</t>
         </is>
       </c>
-      <c r="BA109" t="inlineStr"/>
+      <c r="BC109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
@@ -18378,12 +18696,14 @@
           <t>(-)</t>
         </is>
       </c>
-      <c r="AZ110" t="inlineStr">
+      <c r="AZ110" t="inlineStr"/>
+      <c r="BA110" t="inlineStr"/>
+      <c r="BB110" t="inlineStr">
         <is>
           <t>Passenger cars, new and used,  Imports,  Brazil</t>
         </is>
       </c>
-      <c r="BA110" t="inlineStr"/>
+      <c r="BC110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
@@ -18537,12 +18857,14 @@
       <c r="AY111" t="n">
         <v>1648</v>
       </c>
-      <c r="AZ111" t="inlineStr">
+      <c r="AZ111" t="inlineStr"/>
+      <c r="BA111" t="inlineStr"/>
+      <c r="BB111" t="inlineStr">
         <is>
           <t>Passenger cars, new and used,  Imports,  Canada</t>
         </is>
       </c>
-      <c r="BA111" t="inlineStr"/>
+      <c r="BC111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
@@ -18696,12 +19018,14 @@
       <c r="AY112" t="n">
         <v>174</v>
       </c>
-      <c r="AZ112" t="inlineStr">
+      <c r="AZ112" t="inlineStr"/>
+      <c r="BA112" t="inlineStr"/>
+      <c r="BB112" t="inlineStr">
         <is>
           <t>Passenger cars, new and used,  Imports,  China</t>
         </is>
       </c>
-      <c r="BA112" t="inlineStr"/>
+      <c r="BC112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
@@ -18855,12 +19179,14 @@
       <c r="AY113" t="n">
         <v>790</v>
       </c>
-      <c r="AZ113" t="inlineStr">
+      <c r="AZ113" t="inlineStr"/>
+      <c r="BA113" t="inlineStr"/>
+      <c r="BB113" t="inlineStr">
         <is>
           <t>Passenger cars, new and used,  Imports,  Germany</t>
         </is>
       </c>
-      <c r="BA113" t="inlineStr"/>
+      <c r="BC113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
@@ -19014,12 +19340,14 @@
       <c r="AY114" t="n">
         <v>206</v>
       </c>
-      <c r="AZ114" t="inlineStr">
+      <c r="AZ114" t="inlineStr"/>
+      <c r="BA114" t="inlineStr"/>
+      <c r="BB114" t="inlineStr">
         <is>
           <t>Passenger cars, new and used,  Imports,  Italy</t>
         </is>
       </c>
-      <c r="BA114" t="inlineStr"/>
+      <c r="BC114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
@@ -19173,12 +19501,14 @@
       <c r="AY115" t="n">
         <v>2365</v>
       </c>
-      <c r="AZ115" t="inlineStr">
+      <c r="AZ115" t="inlineStr"/>
+      <c r="BA115" t="inlineStr"/>
+      <c r="BB115" t="inlineStr">
         <is>
           <t>Passenger cars, new and used,  Imports,  Japan</t>
         </is>
       </c>
-      <c r="BA115" t="inlineStr"/>
+      <c r="BC115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
@@ -19332,12 +19662,14 @@
       <c r="AY116" t="n">
         <v>1627</v>
       </c>
-      <c r="AZ116" t="inlineStr">
+      <c r="AZ116" t="inlineStr"/>
+      <c r="BA116" t="inlineStr"/>
+      <c r="BB116" t="inlineStr">
         <is>
           <t>Passenger cars, new and used,  Imports,  Korea, South</t>
         </is>
       </c>
-      <c r="BA116" t="inlineStr"/>
+      <c r="BC116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
@@ -19491,12 +19823,14 @@
       <c r="AY117" t="n">
         <v>2500</v>
       </c>
-      <c r="AZ117" t="inlineStr">
+      <c r="AZ117" t="inlineStr"/>
+      <c r="BA117" t="inlineStr"/>
+      <c r="BB117" t="inlineStr">
         <is>
           <t>Passenger cars, new and used,  Imports,  Mexico</t>
         </is>
       </c>
-      <c r="BA117" t="inlineStr"/>
+      <c r="BC117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -19658,12 +19992,14 @@
       <c r="AY118" t="n">
         <v>21</v>
       </c>
-      <c r="AZ118" t="inlineStr">
+      <c r="AZ118" t="inlineStr"/>
+      <c r="BA118" t="inlineStr"/>
+      <c r="BB118" t="inlineStr">
         <is>
           <t>Passenger cars, new and used,  Imports,  South Africa</t>
         </is>
       </c>
-      <c r="BA118" t="inlineStr"/>
+      <c r="BC118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
@@ -19817,12 +20153,14 @@
       <c r="AY119" t="n">
         <v>134</v>
       </c>
-      <c r="AZ119" t="inlineStr">
+      <c r="AZ119" t="inlineStr"/>
+      <c r="BA119" t="inlineStr"/>
+      <c r="BB119" t="inlineStr">
         <is>
           <t>Passenger cars, new and used,  Imports,  Sweden</t>
         </is>
       </c>
-      <c r="BA119" t="inlineStr"/>
+      <c r="BC119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
@@ -19976,12 +20314,14 @@
       <c r="AY120" t="n">
         <v>11</v>
       </c>
-      <c r="AZ120" t="inlineStr">
+      <c r="AZ120" t="inlineStr"/>
+      <c r="BA120" t="inlineStr"/>
+      <c r="BB120" t="inlineStr">
         <is>
           <t>Passenger cars, new and used,  Imports,  Taiwan</t>
         </is>
       </c>
-      <c r="BA120" t="inlineStr"/>
+      <c r="BC120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
@@ -20139,12 +20479,14 @@
       <c r="AY121" t="n">
         <v>32</v>
       </c>
-      <c r="AZ121" t="inlineStr">
+      <c r="AZ121" t="inlineStr"/>
+      <c r="BA121" t="inlineStr"/>
+      <c r="BB121" t="inlineStr">
         <is>
           <t>Passenger cars, new and used,  Imports,  Thailand</t>
         </is>
       </c>
-      <c r="BA121" t="inlineStr"/>
+      <c r="BC121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
@@ -20298,12 +20640,14 @@
       <c r="AY122" t="n">
         <v>369</v>
       </c>
-      <c r="AZ122" t="inlineStr">
+      <c r="AZ122" t="inlineStr"/>
+      <c r="BA122" t="inlineStr"/>
+      <c r="BB122" t="inlineStr">
         <is>
           <t>Passenger cars, new and used,  Imports,  United Kingdom</t>
         </is>
       </c>
-      <c r="BA122" t="inlineStr"/>
+      <c r="BC122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
@@ -20457,12 +20801,14 @@
       <c r="AY123" t="n">
         <v>575</v>
       </c>
-      <c r="AZ123" t="inlineStr">
+      <c r="AZ123" t="inlineStr"/>
+      <c r="BA123" t="inlineStr"/>
+      <c r="BB123" t="inlineStr">
         <is>
           <t>Passenger cars, new and used,  Imports,  Other Countries</t>
         </is>
       </c>
-      <c r="BA123" t="n">
+      <c r="BC123" t="n">
         <v>141</v>
       </c>
     </row>
@@ -20640,12 +20986,14 @@
       <c r="AY124" t="n">
         <v>1</v>
       </c>
-      <c r="AZ124" t="inlineStr">
+      <c r="AZ124" t="inlineStr"/>
+      <c r="BA124" t="inlineStr"/>
+      <c r="BB124" t="inlineStr">
         <is>
           <t>Trucks, buses and special purpose vehicles,  Imports,  Austria</t>
         </is>
       </c>
-      <c r="BA124" t="inlineStr"/>
+      <c r="BC124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
@@ -20803,12 +21151,14 @@
           <t>(-)</t>
         </is>
       </c>
-      <c r="AZ125" t="inlineStr">
+      <c r="AZ125" t="inlineStr"/>
+      <c r="BA125" t="inlineStr"/>
+      <c r="BB125" t="inlineStr">
         <is>
           <t>Trucks, buses and special purpose vehicles,  Imports,  Brazil</t>
         </is>
       </c>
-      <c r="BA125" t="inlineStr"/>
+      <c r="BC125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
@@ -20962,12 +21312,14 @@
       <c r="AY126" t="n">
         <v>250</v>
       </c>
-      <c r="AZ126" t="inlineStr">
+      <c r="AZ126" t="inlineStr"/>
+      <c r="BA126" t="inlineStr"/>
+      <c r="BB126" t="inlineStr">
         <is>
           <t>Trucks, buses and special purpose vehicles,  Imports,  Canada</t>
         </is>
       </c>
-      <c r="BA126" t="inlineStr"/>
+      <c r="BC126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
@@ -21121,12 +21473,14 @@
       <c r="AY127" t="n">
         <v>73</v>
       </c>
-      <c r="AZ127" t="inlineStr">
+      <c r="AZ127" t="inlineStr"/>
+      <c r="BA127" t="inlineStr"/>
+      <c r="BB127" t="inlineStr">
         <is>
           <t>Trucks, buses and special purpose vehicles,  Imports,  China</t>
         </is>
       </c>
-      <c r="BA127" t="inlineStr"/>
+      <c r="BC127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
@@ -21280,12 +21634,14 @@
       <c r="AY128" t="n">
         <v>35</v>
       </c>
-      <c r="AZ128" t="inlineStr">
+      <c r="AZ128" t="inlineStr"/>
+      <c r="BA128" t="inlineStr"/>
+      <c r="BB128" t="inlineStr">
         <is>
           <t>Trucks, buses and special purpose vehicles,  Imports,  Germany</t>
         </is>
       </c>
-      <c r="BA128" t="inlineStr"/>
+      <c r="BC128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
@@ -21453,12 +21809,14 @@
       <c r="AY129" t="n">
         <v>2</v>
       </c>
-      <c r="AZ129" t="inlineStr">
+      <c r="AZ129" t="inlineStr"/>
+      <c r="BA129" t="inlineStr"/>
+      <c r="BB129" t="inlineStr">
         <is>
           <t>Trucks, buses and special purpose vehicles,  Imports,  Italy</t>
         </is>
       </c>
-      <c r="BA129" t="inlineStr"/>
+      <c r="BC129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
@@ -21612,12 +21970,14 @@
       <c r="AY130" t="n">
         <v>21</v>
       </c>
-      <c r="AZ130" t="inlineStr">
+      <c r="AZ130" t="inlineStr"/>
+      <c r="BA130" t="inlineStr"/>
+      <c r="BB130" t="inlineStr">
         <is>
           <t>Trucks, buses and special purpose vehicles,  Imports,  Japan</t>
         </is>
       </c>
-      <c r="BA130" t="inlineStr"/>
+      <c r="BC130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
@@ -21843,12 +22203,14 @@
           <t>(-)</t>
         </is>
       </c>
-      <c r="AZ131" t="inlineStr">
+      <c r="AZ131" t="inlineStr"/>
+      <c r="BA131" t="inlineStr"/>
+      <c r="BB131" t="inlineStr">
         <is>
           <t>Trucks, buses and special purpose vehicles,  Imports,  Korea, South</t>
         </is>
       </c>
-      <c r="BA131" t="inlineStr"/>
+      <c r="BC131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
@@ -22002,12 +22364,14 @@
       <c r="AY132" t="n">
         <v>2647</v>
       </c>
-      <c r="AZ132" t="inlineStr">
+      <c r="AZ132" t="inlineStr"/>
+      <c r="BA132" t="inlineStr"/>
+      <c r="BB132" t="inlineStr">
         <is>
           <t>Trucks, buses and special purpose vehicles,  Imports,  Mexico</t>
         </is>
       </c>
-      <c r="BA132" t="inlineStr"/>
+      <c r="BC132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
@@ -22213,12 +22577,14 @@
           <t>(-)</t>
         </is>
       </c>
-      <c r="AZ133" t="inlineStr">
+      <c r="AZ133" t="inlineStr"/>
+      <c r="BA133" t="inlineStr"/>
+      <c r="BB133" t="inlineStr">
         <is>
           <t>Trucks, buses and special purpose vehicles,  Imports,  South Africa</t>
         </is>
       </c>
-      <c r="BA133" t="inlineStr"/>
+      <c r="BC133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
@@ -22372,12 +22738,14 @@
       <c r="AY134" t="n">
         <v>15</v>
       </c>
-      <c r="AZ134" t="inlineStr">
+      <c r="AZ134" t="inlineStr"/>
+      <c r="BA134" t="inlineStr"/>
+      <c r="BB134" t="inlineStr">
         <is>
           <t>Trucks, buses and special purpose vehicles,  Imports,  Sweden</t>
         </is>
       </c>
-      <c r="BA134" t="inlineStr"/>
+      <c r="BC134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
@@ -22571,12 +22939,14 @@
           <t>(-)</t>
         </is>
       </c>
-      <c r="AZ135" t="inlineStr">
+      <c r="AZ135" t="inlineStr"/>
+      <c r="BA135" t="inlineStr"/>
+      <c r="BB135" t="inlineStr">
         <is>
           <t>Trucks, buses and special purpose vehicles,  Imports,  Taiwan</t>
         </is>
       </c>
-      <c r="BA135" t="inlineStr"/>
+      <c r="BC135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
@@ -22774,12 +23144,14 @@
       <c r="AY136" t="n">
         <v>1</v>
       </c>
-      <c r="AZ136" t="inlineStr">
+      <c r="AZ136" t="inlineStr"/>
+      <c r="BA136" t="inlineStr"/>
+      <c r="BB136" t="inlineStr">
         <is>
           <t>Trucks, buses and special purpose vehicles,  Imports,  Thailand</t>
         </is>
       </c>
-      <c r="BA136" t="inlineStr"/>
+      <c r="BC136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
@@ -22933,12 +23305,14 @@
       <c r="AY137" t="n">
         <v>35</v>
       </c>
-      <c r="AZ137" t="inlineStr">
+      <c r="AZ137" t="inlineStr"/>
+      <c r="BA137" t="inlineStr"/>
+      <c r="BB137" t="inlineStr">
         <is>
           <t>Trucks, buses and special purpose vehicles,  Imports,  United Kingdom</t>
         </is>
       </c>
-      <c r="BA137" t="inlineStr"/>
+      <c r="BC137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
@@ -23092,12 +23466,14 @@
       <c r="AY138" t="n">
         <v>92</v>
       </c>
-      <c r="AZ138" t="inlineStr">
+      <c r="AZ138" t="inlineStr"/>
+      <c r="BA138" t="inlineStr"/>
+      <c r="BB138" t="inlineStr">
         <is>
           <t>Trucks, buses and special purpose vehicles,  Imports,  Other Countries</t>
         </is>
       </c>
-      <c r="BA138" t="n">
+      <c r="BC138" t="n">
         <v>142</v>
       </c>
     </row>
@@ -23253,12 +23629,14 @@
       <c r="AY139" t="n">
         <v>125</v>
       </c>
-      <c r="AZ139" t="inlineStr">
+      <c r="AZ139" t="inlineStr"/>
+      <c r="BA139" t="inlineStr"/>
+      <c r="BB139" t="inlineStr">
         <is>
           <t>Total parts,  Imports,  Austria</t>
         </is>
       </c>
-      <c r="BA139" t="inlineStr"/>
+      <c r="BC139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
@@ -23412,12 +23790,14 @@
       <c r="AY140" t="n">
         <v>73</v>
       </c>
-      <c r="AZ140" t="inlineStr">
+      <c r="AZ140" t="inlineStr"/>
+      <c r="BA140" t="inlineStr"/>
+      <c r="BB140" t="inlineStr">
         <is>
           <t>Total parts,  Imports,  Brazil</t>
         </is>
       </c>
-      <c r="BA140" t="inlineStr"/>
+      <c r="BC140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
@@ -23571,12 +23951,14 @@
       <c r="AY141" t="n">
         <v>1308</v>
       </c>
-      <c r="AZ141" t="inlineStr">
+      <c r="AZ141" t="inlineStr"/>
+      <c r="BA141" t="inlineStr"/>
+      <c r="BB141" t="inlineStr">
         <is>
           <t>Total parts,  Imports,  Canada</t>
         </is>
       </c>
-      <c r="BA141" t="inlineStr"/>
+      <c r="BC141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
@@ -23730,12 +24112,14 @@
       <c r="AY142" t="n">
         <v>1282</v>
       </c>
-      <c r="AZ142" t="inlineStr">
+      <c r="AZ142" t="inlineStr"/>
+      <c r="BA142" t="inlineStr"/>
+      <c r="BB142" t="inlineStr">
         <is>
           <t>Total parts,  Imports,  China</t>
         </is>
       </c>
-      <c r="BA142" t="inlineStr"/>
+      <c r="BC142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
@@ -23889,12 +24273,14 @@
       <c r="AY143" t="n">
         <v>737</v>
       </c>
-      <c r="AZ143" t="inlineStr">
+      <c r="AZ143" t="inlineStr"/>
+      <c r="BA143" t="inlineStr"/>
+      <c r="BB143" t="inlineStr">
         <is>
           <t>Total parts,  Imports,  Germany</t>
         </is>
       </c>
-      <c r="BA143" t="inlineStr"/>
+      <c r="BC143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
@@ -24048,12 +24434,14 @@
       <c r="AY144" t="n">
         <v>109</v>
       </c>
-      <c r="AZ144" t="inlineStr">
+      <c r="AZ144" t="inlineStr"/>
+      <c r="BA144" t="inlineStr"/>
+      <c r="BB144" t="inlineStr">
         <is>
           <t>Total parts,  Imports,  Italy</t>
         </is>
       </c>
-      <c r="BA144" t="inlineStr"/>
+      <c r="BC144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
@@ -24207,12 +24595,14 @@
       <c r="AY145" t="n">
         <v>1105</v>
       </c>
-      <c r="AZ145" t="inlineStr">
+      <c r="AZ145" t="inlineStr"/>
+      <c r="BA145" t="inlineStr"/>
+      <c r="BB145" t="inlineStr">
         <is>
           <t>Total parts,  Imports,  Japan</t>
         </is>
       </c>
-      <c r="BA145" t="inlineStr"/>
+      <c r="BC145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
@@ -24366,12 +24756,14 @@
       <c r="AY146" t="n">
         <v>778</v>
       </c>
-      <c r="AZ146" t="inlineStr">
+      <c r="AZ146" t="inlineStr"/>
+      <c r="BA146" t="inlineStr"/>
+      <c r="BB146" t="inlineStr">
         <is>
           <t>Total parts,  Imports,  Korea, South</t>
         </is>
       </c>
-      <c r="BA146" t="inlineStr"/>
+      <c r="BC146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
@@ -24525,12 +24917,14 @@
       <c r="AY147" t="n">
         <v>5307</v>
       </c>
-      <c r="AZ147" t="inlineStr">
+      <c r="AZ147" t="inlineStr"/>
+      <c r="BA147" t="inlineStr"/>
+      <c r="BB147" t="inlineStr">
         <is>
           <t>Total parts,  Imports,  Mexico</t>
         </is>
       </c>
-      <c r="BA147" t="inlineStr"/>
+      <c r="BC147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
@@ -24684,12 +25078,14 @@
       <c r="AY148" t="n">
         <v>36</v>
       </c>
-      <c r="AZ148" t="inlineStr">
+      <c r="AZ148" t="inlineStr"/>
+      <c r="BA148" t="inlineStr"/>
+      <c r="BB148" t="inlineStr">
         <is>
           <t>Total parts,  Imports,  South Africa</t>
         </is>
       </c>
-      <c r="BA148" t="inlineStr"/>
+      <c r="BC148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
@@ -24843,12 +25239,14 @@
       <c r="AY149" t="n">
         <v>25</v>
       </c>
-      <c r="AZ149" t="inlineStr">
+      <c r="AZ149" t="inlineStr"/>
+      <c r="BA149" t="inlineStr"/>
+      <c r="BB149" t="inlineStr">
         <is>
           <t>Total parts,  Imports,  Sweden</t>
         </is>
       </c>
-      <c r="BA149" t="inlineStr"/>
+      <c r="BC149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
@@ -25002,12 +25400,14 @@
       <c r="AY150" t="n">
         <v>322</v>
       </c>
-      <c r="AZ150" t="inlineStr">
+      <c r="AZ150" t="inlineStr"/>
+      <c r="BA150" t="inlineStr"/>
+      <c r="BB150" t="inlineStr">
         <is>
           <t>Total parts,  Imports,  Taiwan</t>
         </is>
       </c>
-      <c r="BA150" t="inlineStr"/>
+      <c r="BC150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
@@ -25161,12 +25561,14 @@
       <c r="AY151" t="n">
         <v>437</v>
       </c>
-      <c r="AZ151" t="inlineStr">
+      <c r="AZ151" t="inlineStr"/>
+      <c r="BA151" t="inlineStr"/>
+      <c r="BB151" t="inlineStr">
         <is>
           <t>Total parts,  Imports,  Thailand</t>
         </is>
       </c>
-      <c r="BA151" t="inlineStr"/>
+      <c r="BC151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
@@ -25320,12 +25722,14 @@
       <c r="AY152" t="n">
         <v>105</v>
       </c>
-      <c r="AZ152" t="inlineStr">
+      <c r="AZ152" t="inlineStr"/>
+      <c r="BA152" t="inlineStr"/>
+      <c r="BB152" t="inlineStr">
         <is>
           <t>Total parts,  Imports,  United Kingdom</t>
         </is>
       </c>
-      <c r="BA152" t="inlineStr"/>
+      <c r="BC152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
@@ -25479,12 +25883,14 @@
       <c r="AY153" t="n">
         <v>1547</v>
       </c>
-      <c r="AZ153" t="inlineStr">
+      <c r="AZ153" t="inlineStr"/>
+      <c r="BA153" t="inlineStr"/>
+      <c r="BB153" t="inlineStr">
         <is>
           <t>Total parts,  Imports,  Other Countries</t>
         </is>
       </c>
-      <c r="BA153" t="n">
+      <c r="BC153" t="n">
         <v>138</v>
       </c>
     </row>
